--- a/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
@@ -482,6 +482,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1268,6 +1269,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1991,6 +1993,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
@@ -534,25 +534,25 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>58.54</v>
+        <v>78.05</v>
       </c>
       <c r="H2">
-        <v>41.46</v>
+        <v>21.95</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>41.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -569,25 +569,25 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>58.54</v>
+        <v>75.61</v>
       </c>
       <c r="H3">
-        <v>41.46</v>
+        <v>24.39</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>41.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -604,25 +604,25 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>58.33</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>41.67</v>
+        <v>33.33</v>
       </c>
       <c r="I4">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>41.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -791,13 +791,13 @@
         <v>15.15</v>
       </c>
       <c r="I9">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -826,13 +826,13 @@
         <v>15.15</v>
       </c>
       <c r="I10">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -849,25 +849,25 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1071,13 +1071,13 @@
         <v>10.81</v>
       </c>
       <c r="I17">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1106,13 +1106,13 @@
         <v>10.81</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1144,10 +1144,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1176,13 +1176,13 @@
         <v>13.89</v>
       </c>
       <c r="I20">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1211,13 +1211,13 @@
         <v>16.67</v>
       </c>
       <c r="I21">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1246,13 +1246,13 @@
         <v>27.27</v>
       </c>
       <c r="I22">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>18.18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1321,22 +1321,25 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>17.07</v>
+      </c>
+      <c r="I2">
+        <v>7.5</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1353,22 +1356,25 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>85.37</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>14.63</v>
+      </c>
+      <c r="I3">
+        <v>8.4</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1385,22 +1391,25 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>63.89</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>36.11</v>
+      </c>
+      <c r="I4">
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1545,22 +1554,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>30.3</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1577,22 +1589,25 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>21.21</v>
+      </c>
+      <c r="I10">
+        <v>9.300000000000001</v>
       </c>
       <c r="J10">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1609,22 +1624,25 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>9.1</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1801,22 +1819,25 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>13.51</v>
+      </c>
+      <c r="I17">
+        <v>7.8</v>
       </c>
       <c r="J17">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1833,22 +1854,25 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>13.51</v>
+      </c>
+      <c r="I18">
+        <v>8.1</v>
       </c>
       <c r="J18">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1865,22 +1889,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>11.11</v>
+      </c>
+      <c r="I19">
+        <v>8.300000000000001</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1897,22 +1924,25 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>11.11</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1929,22 +1959,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I21">
+        <v>8.300000000000001</v>
       </c>
       <c r="J21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1961,22 +1994,25 @@
         <v>33</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>30.3</v>
+      </c>
+      <c r="I22">
+        <v>7.8</v>
       </c>
       <c r="J22">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>18.18</v>
       </c>
     </row>
   </sheetData>
@@ -2045,25 +2081,25 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>58.54</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="H2">
-        <v>41.46</v>
+        <v>17.07</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>41.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2080,25 +2116,25 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>58.54</v>
+        <v>87.8</v>
       </c>
       <c r="H3">
-        <v>41.46</v>
+        <v>12.2</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>41.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2115,25 +2151,25 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>58.33</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>41.67</v>
+        <v>33.33</v>
       </c>
       <c r="I4">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>41.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2302,13 +2338,13 @@
         <v>15.15</v>
       </c>
       <c r="I9">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2325,25 +2361,25 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>84.84999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="H10">
-        <v>15.15</v>
+        <v>9.09</v>
       </c>
       <c r="I10">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2360,25 +2396,25 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2570,25 +2606,25 @@
         <v>37</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H17">
-        <v>10.81</v>
+        <v>13.51</v>
       </c>
       <c r="I17">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2605,25 +2641,25 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H18">
-        <v>10.81</v>
+        <v>13.51</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2640,25 +2676,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H19">
-        <v>13.89</v>
+        <v>11.11</v>
       </c>
       <c r="I19">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2675,25 +2711,25 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H20">
-        <v>13.89</v>
+        <v>11.11</v>
       </c>
       <c r="I20">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2722,13 +2758,13 @@
         <v>16.67</v>
       </c>
       <c r="I21">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2745,25 +2781,25 @@
         <v>33</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>72.73</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H22">
-        <v>27.27</v>
+        <v>24.24</v>
       </c>
       <c r="I22">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>18.18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
@@ -639,25 +639,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,25 +674,25 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>59.38</v>
+        <v>65.63</v>
       </c>
       <c r="H6">
-        <v>40.63</v>
+        <v>34.38</v>
       </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>40.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,13 +721,13 @@
         <v>28</v>
       </c>
       <c r="I7">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1426,22 +1426,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>7.6</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1458,22 +1461,25 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>59.38</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>40.63</v>
+      </c>
+      <c r="I6">
+        <v>8.699999999999999</v>
       </c>
       <c r="J6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1490,22 +1496,25 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1554,25 +1563,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>69.7</v>
+        <v>72.73</v>
       </c>
       <c r="H9">
-        <v>30.3</v>
+        <v>27.27</v>
       </c>
       <c r="I9">
         <v>9</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>27.27</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1659,22 +1668,25 @@
         <v>37</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>24.32</v>
+      </c>
+      <c r="I12">
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1691,22 +1703,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>8.33</v>
+      </c>
+      <c r="I13">
+        <v>8.6</v>
       </c>
       <c r="J13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1723,22 +1738,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>11.11</v>
+      </c>
+      <c r="I14">
+        <v>8.699999999999999</v>
       </c>
       <c r="J14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1755,22 +1773,25 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>34.29</v>
+      </c>
+      <c r="I15">
+        <v>6.9</v>
       </c>
       <c r="J15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1787,22 +1808,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>34.29</v>
+      </c>
+      <c r="I16">
+        <v>6.9</v>
       </c>
       <c r="J16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2186,25 +2210,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2221,25 +2245,25 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>59.38</v>
+        <v>68.75</v>
       </c>
       <c r="H6">
-        <v>40.63</v>
+        <v>31.25</v>
       </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>40.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2268,13 +2292,13 @@
         <v>28</v>
       </c>
       <c r="I7">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2431,19 +2455,19 @@
         <v>37</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>83.78</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H12">
-        <v>16.22</v>
+        <v>24.32</v>
       </c>
       <c r="I12">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2466,19 +2490,19 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>86.11</v>
+        <v>91.67</v>
       </c>
       <c r="H13">
-        <v>13.89</v>
+        <v>8.33</v>
       </c>
       <c r="I13">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2501,19 +2525,19 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H14">
-        <v>13.89</v>
+        <v>11.11</v>
       </c>
       <c r="I14">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2536,19 +2560,19 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>68.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H15">
-        <v>31.43</v>
+        <v>34.29</v>
       </c>
       <c r="I15">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2571,19 +2595,19 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>71.43000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H16">
-        <v>28.57</v>
+        <v>34.29</v>
       </c>
       <c r="I16">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J16">
         <v>0</v>

--- a/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
@@ -1531,22 +1531,25 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>31.25</v>
+      </c>
+      <c r="I8">
+        <v>8.1</v>
       </c>
       <c r="J8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2327,7 +2330,7 @@
         <v>25</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="J8">
         <v>8</v>

--- a/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 2020.xlsx
@@ -1578,13 +1578,13 @@
         <v>27.27</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>24.24</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1648,13 +1648,13 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2423,19 +2423,19 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J11">
         <v>0</v>
